--- a/upload/teste-SCAP.xlsx
+++ b/upload/teste-SCAP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Submission ID</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Pba2pP</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -598,6 +610,74 @@
         <v>37</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45436.802708333336</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>45422.0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>45429.0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>45436.0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>46897.0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>45431.0</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/upload/teste-SCAP.xlsx
+++ b/upload/teste-SCAP.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\SIGES-SEPLAG\scap\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="6405"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>Submission ID</t>
   </si>
@@ -142,19 +150,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -165,45 +174,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -393,20 +403,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:V5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -482,7 +497,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="2">
-        <v>45425.79865740741</v>
+        <v>45425.798657407409</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
@@ -494,19 +509,19 @@
         <v>26</v>
       </c>
       <c r="G2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
-        <v>44329.0</v>
+        <v>44329</v>
       </c>
       <c r="K2" s="4">
-        <v>44692.0</v>
+        <v>44692</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>27</v>
@@ -521,19 +536,19 @@
         <v>29</v>
       </c>
       <c r="P2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4">
-        <v>45426.0</v>
+        <v>45426</v>
       </c>
       <c r="S2" s="4">
-        <v>45790.0</v>
+        <v>45790</v>
       </c>
       <c r="T2" s="4">
-        <v>45413.0</v>
+        <v>45413</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>28</v>
@@ -542,7 +557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -550,31 +565,31 @@
         <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>45426.76981481481</v>
+        <v>45426.769814814812</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="1">
-        <v>12333.0</v>
+        <v>12333</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="I3" s="3">
-        <v>456.0</v>
+        <v>456</v>
       </c>
       <c r="J3" s="4">
-        <v>45426.0</v>
+        <v>45426</v>
       </c>
       <c r="K3" s="4">
-        <v>45426.0</v>
+        <v>45426</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>27</v>
@@ -589,19 +604,19 @@
         <v>35</v>
       </c>
       <c r="P3" s="3">
-        <v>11111.0</v>
+        <v>11111</v>
       </c>
       <c r="Q3" s="3">
-        <v>1111.0</v>
+        <v>1111</v>
       </c>
       <c r="R3" s="4">
-        <v>45426.0</v>
+        <v>45426</v>
       </c>
       <c r="S3" s="4">
-        <v>45427.0</v>
+        <v>45427</v>
       </c>
       <c r="T3" s="4">
-        <v>45426.0</v>
+        <v>45426</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>36</v>
@@ -610,7 +625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -624,25 +639,25 @@
         <v>24</v>
       </c>
       <c r="E4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>45422.0</v>
+        <v>45422</v>
       </c>
       <c r="K4" s="4">
-        <v>45429.0</v>
+        <v>45429</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>27</v>
@@ -657,19 +672,19 @@
         <v>39</v>
       </c>
       <c r="P4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R4" s="4">
-        <v>45436.0</v>
+        <v>45436</v>
       </c>
       <c r="S4" s="4">
-        <v>46897.0</v>
+        <v>46897</v>
       </c>
       <c r="T4" s="4">
-        <v>45431.0</v>
+        <v>45431</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>40</v>
@@ -678,7 +693,75 @@
         <v>41</v>
       </c>
     </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45425.798657407409</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>44329</v>
+      </c>
+      <c r="K5" s="4">
+        <v>44692</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>45426</v>
+      </c>
+      <c r="S5" s="4">
+        <v>45790</v>
+      </c>
+      <c r="T5" s="4">
+        <v>45413</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/upload/teste-SCAP.xlsx
+++ b/upload/teste-SCAP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\SIGES-SEPLAG\scap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\SIGES-SEPLAG\scap\template-SCAP\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>Submission ID</t>
   </si>
@@ -413,15 +413,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:V5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -557,7 +557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -625,7 +625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -759,6 +759,74 @@
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45426.769814814812</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3">
+        <v>12333</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>123</v>
+      </c>
+      <c r="I6" s="3">
+        <v>456</v>
+      </c>
+      <c r="J6" s="4">
+        <v>45426</v>
+      </c>
+      <c r="K6" s="4">
+        <v>45426</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="3">
+        <v>11111</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1111</v>
+      </c>
+      <c r="R6" s="4">
+        <v>45426</v>
+      </c>
+      <c r="S6" s="4">
+        <v>45427</v>
+      </c>
+      <c r="T6" s="4">
+        <v>45426</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/upload/teste-SCAP.xlsx
+++ b/upload/teste-SCAP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Submission ID</t>
   </si>
@@ -144,7 +144,10 @@
     <t>V</t>
   </si>
   <si>
-    <t>G</t>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -415,8 +418,8 @@
   </sheetPr>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:V6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -527,7 +530,7 @@
         <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>27</v>
@@ -690,144 +693,56 @@
         <v>40</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45425.798657407409</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>44329</v>
-      </c>
-      <c r="K5" s="4">
-        <v>44692</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>45426</v>
-      </c>
-      <c r="S5" s="4">
-        <v>45790</v>
-      </c>
-      <c r="T5" s="4">
-        <v>45413</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45426.769814814812</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3">
-        <v>12333</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>123</v>
-      </c>
-      <c r="I6" s="3">
-        <v>456</v>
-      </c>
-      <c r="J6" s="4">
-        <v>45426</v>
-      </c>
-      <c r="K6" s="4">
-        <v>45426</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="3">
-        <v>11111</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>1111</v>
-      </c>
-      <c r="R6" s="4">
-        <v>45426</v>
-      </c>
-      <c r="S6" s="4">
-        <v>45427</v>
-      </c>
-      <c r="T6" s="4">
-        <v>45426</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/upload/teste-SCAP.xlsx
+++ b/upload/teste-SCAP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Submission ID</t>
   </si>
@@ -418,8 +418,8 @@
   </sheetPr>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -697,28 +697,72 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45426.769814814812</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3">
+        <v>12333</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>123</v>
+      </c>
+      <c r="I5" s="3">
+        <v>456</v>
+      </c>
+      <c r="J5" s="4">
+        <v>45426</v>
+      </c>
+      <c r="K5" s="4">
+        <v>45426</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="3">
+        <v>11111</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1111</v>
+      </c>
+      <c r="R5" s="4">
+        <v>45426</v>
+      </c>
+      <c r="S5" s="4">
+        <v>45427</v>
+      </c>
+      <c r="T5" s="4">
+        <v>45426</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>

--- a/upload/teste-SCAP.xlsx
+++ b/upload/teste-SCAP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Submission ID</t>
   </si>
@@ -697,72 +697,28 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45426.769814814812</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3">
-        <v>12333</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>123</v>
-      </c>
-      <c r="I5" s="3">
-        <v>456</v>
-      </c>
-      <c r="J5" s="4">
-        <v>45426</v>
-      </c>
-      <c r="K5" s="4">
-        <v>45426</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="3">
-        <v>11111</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1111</v>
-      </c>
-      <c r="R5" s="4">
-        <v>45426</v>
-      </c>
-      <c r="S5" s="4">
-        <v>45427</v>
-      </c>
-      <c r="T5" s="4">
-        <v>45426</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>

--- a/upload/teste-SCAP.xlsx
+++ b/upload/teste-SCAP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\SIGES-SEPLAG\scap\template-SCAP\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\SIGES-SEPLAG\scap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>Submission ID</t>
   </si>
@@ -144,10 +144,7 @@
     <t>V</t>
   </si>
   <si>
-    <t>IX</t>
-  </si>
-  <si>
-    <t>K</t>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -416,7 +413,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:V5"/>
@@ -424,7 +421,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -530,7 +527,7 @@
         <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>27</v>
@@ -560,7 +557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -628,7 +625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -693,56 +690,76 @@
         <v>40</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45425.798657407409</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>44329</v>
+      </c>
+      <c r="K5" s="4">
+        <v>44692</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>45426</v>
+      </c>
+      <c r="S5" s="4">
+        <v>45790</v>
+      </c>
+      <c r="T5" s="4">
+        <v>45413</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
